--- a/igs/test-fsh/CurrentBuild/all-profiles.xlsx
+++ b/igs/test-fsh/CurrentBuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.4</t>
+    <t>0.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -1005,7 +1005,7 @@
     <t>A human identifier for this person</t>
   </si>
   <si>
-    <t>An identifier for this person. Should be at Fødselsnummer or D-nummer
+    <t>An identifier for this person. Should be a Fødselsnummer or D-nummer
 Identifier for a person within a particular scope. TNR is also allowed</t>
   </si>
   <si>
